--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66038A85-01CF-47B5-A458-2DC0A982AF1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F19190-EA69-4D54-9A7F-029B05691A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>PU</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Kolos</t>
+  </si>
+  <si>
+    <t>PU + DFD + DA</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="UML"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
-    <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="?"/>
+    <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="??"/>
     <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[??]])</calculatedColumnFormula>
@@ -387,12 +387,13 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P18" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="7" width="11.44140625" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
@@ -408,19 +409,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -430,9 +431,12 @@
       <c r="D3">
         <v>0.5</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -457,9 +461,12 @@
       <c r="D5">
         <v>0.5</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="G5">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -469,9 +476,12 @@
       <c r="D6">
         <v>0.5</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="G6">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -493,9 +503,12 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="G8">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -505,9 +518,12 @@
       <c r="C9">
         <v>1.5</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="G9">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -520,9 +536,12 @@
       <c r="D10">
         <v>0.5</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -547,9 +566,12 @@
       <c r="D12">
         <v>0.5</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="G12">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -562,9 +584,12 @@
       <c r="D13">
         <v>0.5</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="G13">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -574,27 +599,36 @@
       <c r="D14">
         <v>0.5</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="G14">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="G15">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
       <c r="G16">
         <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F19190-EA69-4D54-9A7F-029B05691A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB3DE6-8D9F-4EB6-898D-4953EB366C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -31,9 +36,6 @@
     <t>PU</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Suma aktywności</t>
   </si>
   <si>
@@ -44,6 +46,9 @@
   </si>
   <si>
     <t>PU + DFD + DA</t>
+  </si>
+  <si>
+    <t>Seq</t>
   </si>
 </sst>
 </file>
@@ -110,9 +115,9 @@
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="UML"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
-    <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="??"/>
+    <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="Seq"/>
     <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[??]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[Seq]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
     <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos"/>
@@ -387,7 +392,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P17:P18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,19 +414,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -435,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>1.5</v>
       </c>
     </row>
@@ -447,7 +452,7 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>0.5</v>
       </c>
     </row>
@@ -465,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>4.5</v>
       </c>
     </row>
@@ -479,9 +484,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
       <c r="G6">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1.5</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -491,9 +499,12 @@
       <c r="C7">
         <v>0.5</v>
       </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
       <c r="G7">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0.5</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -507,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
     </row>
@@ -521,9 +532,12 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>2.5</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -539,9 +553,12 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
       <c r="G10">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>2</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -551,9 +568,12 @@
       <c r="C11">
         <v>0.25</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
       <c r="G11">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>0.25</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -570,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
     </row>
@@ -587,9 +607,12 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="G13">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>2</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -603,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>1.5</v>
       </c>
     </row>
@@ -614,9 +637,12 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="G15">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
-        <v>1</v>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -627,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <f>SUM(Tabela1[[#This Row],[UML]:[??]])</f>
+        <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
     </row>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB3DE6-8D9F-4EB6-898D-4953EB366C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB99F0-94CE-484D-9B4C-0F47E03DA019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Indeks</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Seq</t>
+  </si>
+  <si>
+    <t>Bonus do oceny</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,10 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -108,16 +114,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:I16" totalsRowShown="0">
-  <autoFilter ref="B2:I16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:J16" totalsRowShown="0">
+  <autoFilter ref="B2:J16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="UML"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="Seq"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[Seq]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
     <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos"/>
@@ -389,21 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -423,13 +432,16 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -443,8 +455,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -455,8 +471,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -473,8 +493,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -491,8 +515,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -506,8 +534,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -521,8 +553,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -539,8 +575,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -560,8 +600,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -575,8 +619,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -593,8 +641,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -614,8 +666,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -629,8 +685,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -644,8 +704,12 @@
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -655,6 +719,10 @@
       <c r="G16">
         <f>SUM(Tabela1[[#This Row],[UML]:[Seq]])</f>
         <v>2</v>
+      </c>
+      <c r="H16">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB99F0-94CE-484D-9B4C-0F47E03DA019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CBE8E-7355-4BBD-8FCF-783B13ACA365}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Indeks</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Bonus do oceny</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +462,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -475,6 +481,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -497,6 +506,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -519,6 +531,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -538,6 +553,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -557,6 +575,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -579,6 +600,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -604,6 +628,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -623,6 +650,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -645,6 +675,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -670,6 +703,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
@@ -689,6 +725,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
@@ -708,6 +747,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
@@ -723,6 +765,9 @@
       <c r="H16">
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CBE8E-7355-4BBD-8FCF-783B13ACA365}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFA5CF-0C67-4392-B753-C050C74CA6F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Indeks</t>
   </si>
@@ -52,16 +52,13 @@
   </si>
   <si>
     <t>Bonus do oceny</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +66,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -404,14 +422,14 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,8 +480,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="I3" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -531,8 +549,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I6">
-        <v>3</v>
+      <c r="I6" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -553,8 +571,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I7">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -575,8 +593,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <v>3</v>
+      <c r="I8" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -600,8 +618,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I9">
-        <v>2</v>
+      <c r="I9" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -675,8 +693,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I12">
-        <v>2</v>
+      <c r="I12" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -725,8 +743,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>2</v>
+      <c r="I14" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -766,8 +784,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I16" t="s">
-        <v>9</v>
+      <c r="I16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFA5CF-0C67-4392-B753-C050C74CA6F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A8807-28D2-48AD-8471-D082CE9B5A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Indeks</t>
   </si>
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,12 +83,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,11 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -422,7 +415,7 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,8 +611,8 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</f>
         <v>0.5</v>
       </c>
-      <c r="I9" s="3">
-        <v>3</v>
+      <c r="I9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A8807-28D2-48AD-8471-D082CE9B5A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D35BBE-06EF-4677-9955-3572B955B882}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Indeks</t>
   </si>
@@ -52,13 +52,25 @@
   </si>
   <si>
     <t>Bonus do oceny</t>
+  </si>
+  <si>
+    <t>Kolos pkt</t>
+  </si>
+  <si>
+    <t>Te są końcowe</t>
+  </si>
+  <si>
+    <t>Ocena wg. zasad zaliczenia</t>
+  </si>
+  <si>
+    <t>Ocena wg. średniej</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +80,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +123,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -96,18 +144,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% — akcent 4" xfId="2" builtinId="42"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -128,22 +188,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:J16" totalsRowShown="0">
-  <autoFilter ref="B2:J16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:M16" totalsRowShown="0">
+  <autoFilter ref="B2:M16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="UML"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="Seq"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[Seq]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
-    <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos"/>
+    <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos pkt"/>
+    <tableColumn id="10" xr3:uid="{FCADA701-4211-40C0-973D-31533DC1C314}" name="Kolos"/>
+    <tableColumn id="11" xr3:uid="{7C157C53-496D-4281-BBEA-CEBA4C9F229E}" name="Ocena wg. zasad zaliczenia">
+      <calculatedColumnFormula>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{DA7101ED-DC03-4561-9A60-474ADA118140}" name="Ocena wg. średniej" dataDxfId="0" dataCellStyle="20% — akcent 4">
+      <calculatedColumnFormula>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -412,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M19" sqref="L19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,9 +491,15 @@
     <col min="7" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.44140625" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -452,10 +525,19 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -476,8 +558,22 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1.25</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -495,8 +591,22 @@
       <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -520,8 +630,22 @@
       <c r="I5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -545,8 +669,22 @@
       <c r="I6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
+      </c>
+      <c r="L6">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -567,8 +705,22 @@
       <c r="I7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="M7" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -589,8 +741,22 @@
       <c r="I8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>1.75</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+      <c r="L8">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -614,8 +780,22 @@
       <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -642,8 +822,22 @@
       <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1.25</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -664,8 +858,22 @@
       <c r="I11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1.75</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -689,8 +897,22 @@
       <c r="I12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -717,8 +939,22 @@
       <c r="I13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="M13" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -739,8 +975,22 @@
       <c r="I14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -761,8 +1011,22 @@
       <c r="I15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>1.25</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="M15" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -780,11 +1044,26 @@
       <c r="I16">
         <v>2</v>
       </c>
+      <c r="J16">
+        <v>1.25</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="3">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D35BBE-06EF-4677-9955-3572B955B882}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA58F3F-FF28-4845-BCDC-89DC1485A6AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Indeks</t>
   </si>
@@ -64,26 +64,21 @@
   </si>
   <si>
     <t>Ocena wg. średniej</t>
+  </si>
+  <si>
+    <t>Ocena końcowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,9 +96,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -130,8 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,28 +139,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% — akcent 4" xfId="2" builtinId="42"/>
+    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -196,10 +183,10 @@
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="Seq"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[Seq]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
@@ -208,9 +195,7 @@
     <tableColumn id="11" xr3:uid="{7C157C53-496D-4281-BBEA-CEBA4C9F229E}" name="Ocena wg. zasad zaliczenia">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{DA7101ED-DC03-4561-9A60-474ADA118140}" name="Ocena wg. średniej" dataDxfId="0" dataCellStyle="20% — akcent 4">
-      <calculatedColumnFormula>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="13" xr3:uid="{F56A795D-4B89-42F9-BC7A-70F32201030E}" name="Ocena końcowa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -479,27 +464,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M16"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="L19:M21"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -533,11 +513,11 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -568,12 +548,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M3" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -601,12 +580,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>2</v>
       </c>
-      <c r="M4" s="4">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -640,12 +618,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M5" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+      <c r="M5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -679,12 +656,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M6" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -715,12 +691,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>2.5</v>
       </c>
-      <c r="M7" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -751,12 +726,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -790,12 +764,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -832,12 +805,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M10" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -868,12 +840,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M11" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -907,12 +878,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M12" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -949,12 +919,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M13" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -985,12 +954,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -1021,12 +989,11 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M15" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -1054,8 +1021,7 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>2.5</v>
       </c>
-      <c r="M16" s="3">
-        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+      <c r="M16">
         <v>3</v>
       </c>
     </row>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA58F3F-FF28-4845-BCDC-89DC1485A6AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8168B-C48C-465F-87F8-2AF109DB1CD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Indeks</t>
   </si>
@@ -66,19 +69,27 @@
     <t>Ocena wg. średniej</t>
   </si>
   <si>
-    <t>Ocena końcowa</t>
+    <t>Końcowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,8 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -124,7 +136,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,22 +152,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
+    <cellStyle name="20% — akcent 4" xfId="2" builtinId="42"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -174,19 +193,32 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Arkusz1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:M16" totalsRowShown="0">
-  <autoFilter ref="B2:M16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:N16" totalsRowShown="0">
+  <autoFilter ref="B2:N16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="UML"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="PU"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="PU + DFD + DA"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="Seq"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[UML]:[Seq]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{C0168477-3FF2-4BCA-9EE2-76EA837E4107}" name="Bonus do oceny" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=4,1,0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
@@ -195,7 +227,12 @@
     <tableColumn id="11" xr3:uid="{7C157C53-496D-4281-BBEA-CEBA4C9F229E}" name="Ocena wg. zasad zaliczenia">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F56A795D-4B89-42F9-BC7A-70F32201030E}" name="Ocena końcowa"/>
+    <tableColumn id="13" xr3:uid="{F56A795D-4B89-42F9-BC7A-70F32201030E}" name="Ocena wg. średniej" dataCellStyle="20% — akcent 4">
+      <calculatedColumnFormula>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{8D25DC83-5D7E-4F9F-830F-F3913C338C6A}" name="Końcowa" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,22 +501,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -513,11 +555,14 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -548,11 +593,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -581,10 +631,15 @@
         <v>2</v>
       </c>
       <c r="M4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -618,11 +673,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -656,11 +716,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -691,11 +756,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>2.5</v>
       </c>
-      <c r="M7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N7">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -726,11 +796,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -764,11 +839,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -805,11 +885,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -840,11 +925,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -878,11 +968,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -919,11 +1014,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -954,11 +1054,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3</v>
       </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -989,11 +1094,16 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>3.5</v>
       </c>
-      <c r="M15">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -1021,7 +1131,12 @@
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Bonus do oceny]]</f>
         <v>2.5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
+        <f>MROUND(([1]!Tabela1[[#This Row],[Zadanie domowe]]+[1]!Tabela1[[#This Row],[Kolos]])/2 +[1]!Tabela1[[#This Row],[Bonus do oceny]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
         <v>3</v>
       </c>
     </row>
